--- a/player/checked/20230602_listplayer.xlsx
+++ b/player/checked/20230602_listplayer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\BadmintonPayment\player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d1dd2fc4bf918acb/Projects/badminton-payment2/player/checked/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D73263A-2975-450C-B406-DF2DE4A804EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5D73263A-2975-450C-B406-DF2DE4A804EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A3CB577-2ADD-42FD-9602-CAA109FE01B4}"/>
   <bookViews>
-    <workbookView xWindow="12075" yWindow="30" windowWidth="16815" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12465" yWindow="75" windowWidth="16065" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023xxxx_listplayer" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="81">
   <si>
     <t>team</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>bill</t>
+  </si>
+  <si>
+    <t>OM</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1119,7 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,14 +1954,14 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
         <v>62</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="0"/>
-        <v>TalayResource</v>
+        <v>TalayOM</v>
       </c>
       <c r="D36">
         <v>0</v>
